--- a/biology/Botanique/Cleisostoma/Cleisostoma.xlsx
+++ b/biology/Botanique/Cleisostoma/Cleisostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleisostoma est un genre de la famille des Orchidaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carteretia A. Rich.
 Echinoglossum Blume
@@ -569,7 +585,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie tropicale, depuis l'Inde jusqu'en Australie.
 </t>
@@ -600,13 +618,46 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sections: Cleisostoma sect. Cleisostoma – Cleisostoma sect. Complicatum – Cleisostoma sect. Echioglossum – Cleisostoma sect. Gastrochilopsis – Cleisostoma sect. Mitriformes – Cleisostoma sect. Paniculatum – Cleisostoma sect. Pilearia – Cleisostoma sect. Pterogyne – Cleisostoma sect. Subulatum – Cleisostoma sect. Teretisculum
-Liste partielle d'espèces
 </t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cleisostoma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleisostoma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des sous-taxons</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste partielle d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
